--- a/Lung Cancer Classification with CT Scans/LabIACD_2425_GroupEvaluation_TP1_Group8.xlsx
+++ b/Lung Cancer Classification with CT Scans/LabIACD_2425_GroupEvaluation_TP1_Group8.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E004BA-A6A9-4477-B3C6-56B3FDB5FA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEECE81-2686-48C4-AB2E-B0F1AEBC8351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,38 +20,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
   <si>
     <t>Student</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">% of participation in the project </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(sum of all students should be = 100%)</t>
+    </r>
+  </si>
+  <si>
     <t>Task the student participated</t>
   </si>
   <si>
     <t>Justification in case that % is not equal to all students</t>
   </si>
   <si>
+    <t>Francisco Macieira</t>
+  </si>
+  <si>
     <t>Gonçalo Esteves</t>
   </si>
   <si>
     <t>Nuno Gomes</t>
   </si>
   <si>
-    <t>% of participation in the project (sum of all students should be = 100%)</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>Group 8</t>
-  </si>
-  <si>
-    <t>TP1</t>
-  </si>
-  <si>
-    <t>Francisco Macieira</t>
-  </si>
-  <si>
     <t>Developed, Trained and Evaluated the Machine Learning Models upon the preprocessed dataset.</t>
   </si>
   <si>
@@ -59,6 +69,9 @@
   </si>
   <si>
     <t>Also helped develop the feature extraction pipeline and also contributed towards the Ethical Analysis of the problem.</t>
+  </si>
+  <si>
+    <t>---</t>
   </si>
 </sst>
 </file>
@@ -75,16 +88,19 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,14 +138,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -137,7 +149,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -420,88 +439,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:G9"/>
+  <dimension ref="D3:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="3.5546875" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="107.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.33203125" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="111.42578125" customWidth="1"/>
+    <col min="7" max="7" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D4" s="1" t="s">
+      <c r="E8" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="4:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="4:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="E9" s="5">
         <v>0.33</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4" t="str">
-        <f>G7</f>
-        <v>~</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="4" t="str">
-        <f>G7</f>
-        <v>~</v>
-      </c>
+    </row>
+    <row r="10" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
